--- a/data/trans_dic/P16A04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A04-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.008457947473062284</v>
+        <v>0.007905740361420735</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01050373536624106</v>
+        <v>0.008978243195192026</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002205463240824284</v>
+        <v>0.002209446035353996</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.004175363742674665</v>
+        <v>0.004166651882642715</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.007548543590222867</v>
+        <v>0.007898084739826524</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02111615568538669</v>
+        <v>0.02084089048139954</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01260381974140266</v>
+        <v>0.01232360230825443</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.008952949756771833</v>
+        <v>0.0100124095484409</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01007769528472559</v>
+        <v>0.009760895191738336</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01789823810005</v>
+        <v>0.01807121792446834</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.009202459848478079</v>
+        <v>0.008789071409599787</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01064995815755029</v>
+        <v>0.01026034497874611</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03515273810214973</v>
+        <v>0.03500983305234014</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0368525064019584</v>
+        <v>0.03740416197228952</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0182022217924859</v>
+        <v>0.02015115219001924</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05539882550316899</v>
+        <v>0.04718306745663917</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03107427413390363</v>
+        <v>0.03028562464480742</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05650644824106363</v>
+        <v>0.05790858463531891</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04335849673131106</v>
+        <v>0.04441321415846596</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05586680456008774</v>
+        <v>0.05554751478264151</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02757232400238156</v>
+        <v>0.02688089695731784</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03826617474139299</v>
+        <v>0.03838447227190639</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02633648366445535</v>
+        <v>0.02654641284849091</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04087606930363713</v>
+        <v>0.04228861715936413</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.0250958043470996</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.02483510316776003</v>
+        <v>0.02483510316776002</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01688121432074972</v>
@@ -833,7 +833,7 @@
         <v>0.02846525737267351</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.01924240430332248</v>
+        <v>0.01924240430332247</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004064582400245743</v>
+        <v>0.003788890665994984</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01703066796399279</v>
+        <v>0.01714600182699139</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01998026407786193</v>
+        <v>0.01867237380641642</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002921023357242395</v>
+        <v>0.002904723818572764</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01505273675823421</v>
+        <v>0.01598938722685452</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02818049962132053</v>
+        <v>0.0282833210379735</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01393108728534392</v>
+        <v>0.0146397144245071</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01300013123436023</v>
+        <v>0.01352590139051542</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.011342030373686</v>
+        <v>0.01107267742705812</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02560686436690651</v>
+        <v>0.02621173500078378</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01927979976094343</v>
+        <v>0.01996667115559115</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01079693904941738</v>
+        <v>0.01161181745207606</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0187576573058177</v>
+        <v>0.0177406540007393</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04418782840986305</v>
+        <v>0.04581632175545019</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04929564284984365</v>
+        <v>0.04723477440079508</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03857864805533382</v>
+        <v>0.03627439667874226</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04329889220577544</v>
+        <v>0.04164237557688087</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06503513123195066</v>
+        <v>0.06682324617606857</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04081234908093525</v>
+        <v>0.04101634517212024</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04323835219487301</v>
+        <v>0.0441592717297018</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.025535563559907</v>
+        <v>0.0243504061776392</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0476540948612911</v>
+        <v>0.04790960583478286</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03948175595447682</v>
+        <v>0.03902924747512028</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03257844442731768</v>
+        <v>0.0329890260125809</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.02197258328506359</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02499866854849902</v>
+        <v>0.02499866854849901</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002857853039923361</v>
+        <v>0.002997520886628531</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01318801411495509</v>
+        <v>0.01354736526060633</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01240638817423557</v>
+        <v>0.01261943922568127</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01202447430641069</v>
+        <v>0.01045714113250436</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0113633737844314</v>
+        <v>0.01145495792783246</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0164053291808737</v>
+        <v>0.01520244470984742</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01170354673298996</v>
+        <v>0.01166139045227398</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01923897540774354</v>
+        <v>0.01896004639222451</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.009044193865825499</v>
+        <v>0.008996644429035293</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01753748831485129</v>
+        <v>0.01691367714081494</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01492390664240118</v>
+        <v>0.01529600430601201</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01765440685408075</v>
+        <v>0.01788994769367628</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01718800215888047</v>
+        <v>0.01712131553382545</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03728504417623819</v>
+        <v>0.03708964666488618</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03792458793633672</v>
+        <v>0.03684490787356937</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03680581574478033</v>
+        <v>0.03608994267442287</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03499369113435701</v>
+        <v>0.03557451910943567</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04077325006192108</v>
+        <v>0.04180573565091804</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03491105927550287</v>
+        <v>0.03448699281067603</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04046696195507281</v>
+        <v>0.04156756802278124</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02243086710909636</v>
+        <v>0.02314899127224361</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0345890661011731</v>
+        <v>0.03464078929533185</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03137139757573279</v>
+        <v>0.0323003352174324</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03449310750542265</v>
+        <v>0.03451129167946348</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00728617538677914</v>
+        <v>0.007287344150107671</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0098335712774398</v>
+        <v>0.00977013107198115</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009984530253114651</v>
+        <v>0.01009695502478545</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01757031667141444</v>
+        <v>0.01799025734334063</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005847061716465807</v>
+        <v>0.005640264839691272</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.007239543900905869</v>
+        <v>0.007173692296872218</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003098005394893608</v>
+        <v>0.003128008692286879</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02031420644592958</v>
+        <v>0.02039700444586112</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.008365367736303168</v>
+        <v>0.008703082590992377</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01105376406024636</v>
+        <v>0.01125650668913831</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.007975488028917635</v>
+        <v>0.008282355045588632</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02134070759564862</v>
+        <v>0.02214469476898786</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0322514481060102</v>
+        <v>0.03174881948019136</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03489926782932123</v>
+        <v>0.03622591750926397</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03381094797051976</v>
+        <v>0.03282831162880861</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04623207929371539</v>
+        <v>0.04578342298512136</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02672413907945565</v>
+        <v>0.02800683777000951</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0285386976073433</v>
+        <v>0.0283885823800613</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01792857899445606</v>
+        <v>0.01801170700807176</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03986307084316564</v>
+        <v>0.040059285328459</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02394607552801963</v>
+        <v>0.02378304679709459</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02817767405743241</v>
+        <v>0.02662526707160246</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0218293974086318</v>
+        <v>0.02124467806998278</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03875747412809522</v>
+        <v>0.03944556629732557</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02083017906174673</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02457170270810001</v>
+        <v>0.0245717027081</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.02286411105617085</v>
@@ -1241,7 +1241,7 @@
         <v>0.02822257572180239</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.03382433500585606</v>
+        <v>0.03382433500585605</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01819963384065543</v>
+        <v>0.01733253576691498</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01542065148759583</v>
+        <v>0.01588016083066605</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.009228186373806777</v>
+        <v>0.009330978070356408</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01529830980788823</v>
+        <v>0.01446280097768845</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01073619097317272</v>
+        <v>0.01087535851569402</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.009168108087383775</v>
+        <v>0.009122168639918873</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01986195136716824</v>
+        <v>0.0202374019161372</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0317942603755041</v>
+        <v>0.03098473241377138</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01789073450214518</v>
+        <v>0.0176812986838947</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01481753942025771</v>
+        <v>0.01503315660259282</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01898514639982648</v>
+        <v>0.01861212531971356</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02658771824543545</v>
+        <v>0.02591729826078843</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05404434704396482</v>
+        <v>0.05533814019928974</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05622936733573929</v>
+        <v>0.05291288658785136</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0387091829731911</v>
+        <v>0.03646555312771325</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0392178744268642</v>
+        <v>0.0368372659057459</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04149873598087099</v>
+        <v>0.04240984468657859</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03755098029182592</v>
+        <v>0.03510864359321612</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05584123823740501</v>
+        <v>0.05552888392090559</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05696420218287154</v>
+        <v>0.05835364619154974</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04189094262908462</v>
+        <v>0.04137050842963987</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03919633917742067</v>
+        <v>0.03788527049447197</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0413862948828722</v>
+        <v>0.04200093001419088</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04320942712442055</v>
+        <v>0.04334715453567066</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.02722515457692356</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.02525229735204683</v>
+        <v>0.02525229735204684</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.02887194133862721</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01521433886177255</v>
+        <v>0.01573919229858617</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02883969063350313</v>
+        <v>0.03108984619997896</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01247368872436468</v>
+        <v>0.01260263665565393</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01460377433116012</v>
+        <v>0.01516502797163777</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01547200829492357</v>
+        <v>0.0157811642804007</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01349669710719325</v>
+        <v>0.01320117872652009</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01023730664973246</v>
+        <v>0.008558881755146587</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02390870373861469</v>
+        <v>0.02281641457047121</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01871195906967859</v>
+        <v>0.01783698787644435</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02584954684995366</v>
+        <v>0.02575598272557358</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01387894692996514</v>
+        <v>0.01510891095343806</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02211425593174383</v>
+        <v>0.02213227022145586</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05458438791136826</v>
+        <v>0.05254701196850758</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09671494650835147</v>
+        <v>0.09777989868738568</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04846181516666338</v>
+        <v>0.04967589564735533</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04104025742926851</v>
+        <v>0.04306653674890523</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0526713213690705</v>
+        <v>0.05193595943017179</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04943542957590991</v>
+        <v>0.0492467295499724</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04621721166363486</v>
+        <v>0.04657077156640133</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05095270850747641</v>
+        <v>0.04890611858472108</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04465299082410704</v>
+        <v>0.04382984107303664</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06392107879893316</v>
+        <v>0.06339263109166621</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04028568262006312</v>
+        <v>0.04126930165777886</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04071289860288729</v>
+        <v>0.04132355098864102</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.006425850677459414</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.02947379338193508</v>
+        <v>0.02947379338193507</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.03222773556185678</v>
@@ -1501,7 +1501,7 @@
         <v>0.02543558762288403</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.04580595826009366</v>
+        <v>0.04580595826009365</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.03466747506518495</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01684330308450054</v>
+        <v>0.01816543015523382</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0174029205242497</v>
+        <v>0.01885776151138207</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01618086140850193</v>
+        <v>0.01530162436436411</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01716001079495409</v>
+        <v>0.01486007799309832</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01706989794468457</v>
+        <v>0.01721434346251423</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01258333534378781</v>
+        <v>0.01236319552596156</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03174250477163552</v>
+        <v>0.03307659638265219</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02099597476778502</v>
+        <v>0.02100234065056289</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02295711415178207</v>
+        <v>0.02251651587146709</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.009420632535734795</v>
+        <v>0.008860167212277795</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02958298198077739</v>
+        <v>0.02951770334680135</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07840194387985742</v>
+        <v>0.07452433481092222</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07734714638908391</v>
+        <v>0.07859633232047974</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02014456710673861</v>
+        <v>0.01948586870710022</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.048697658704393</v>
+        <v>0.04961668745185847</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0592278293926741</v>
+        <v>0.05757023027550034</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05718383695593881</v>
+        <v>0.05452997855590986</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04829164815640741</v>
+        <v>0.04810912599481717</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06522333819901577</v>
+        <v>0.06732033576932675</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05535476920283346</v>
+        <v>0.05644201391829568</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05824023318629011</v>
+        <v>0.05777112316040084</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03290040764643856</v>
+        <v>0.0315132910103564</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.05216524413294132</v>
+        <v>0.05380041199496317</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.0203674935763462</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.02326288178850716</v>
+        <v>0.02326288178850715</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.02213235544410175</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01378977435704009</v>
+        <v>0.01378810503931462</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0222599411261059</v>
+        <v>0.02210851730124338</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01607082374184086</v>
+        <v>0.01530176753567606</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01836246613602113</v>
+        <v>0.01795689111509104</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01764408954218095</v>
+        <v>0.01785189251954013</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02332279770277957</v>
+        <v>0.02321274383528633</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01769682647381617</v>
+        <v>0.01737134170840455</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0276852947226661</v>
+        <v>0.02849019274602221</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01673836752900124</v>
+        <v>0.01668753418423446</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02434214460051584</v>
+        <v>0.02447892235996506</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01837309818930853</v>
+        <v>0.01825729669033089</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02467020864503974</v>
+        <v>0.02455387965182898</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02302874057988636</v>
+        <v>0.02309209636156779</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03443947384500962</v>
+        <v>0.03460428374438442</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02537461154884219</v>
+        <v>0.02593140041387221</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02946142738698069</v>
+        <v>0.02956241436597362</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02831724624947891</v>
+        <v>0.02800115905029992</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03470268551698643</v>
+        <v>0.03546175182510768</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02875556657475938</v>
+        <v>0.02760262118059435</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03810324241767862</v>
+        <v>0.03864449078735222</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.02381799864549361</v>
+        <v>0.02371886825728065</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.0328924476922333</v>
+        <v>0.03301181282722718</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02566026813376164</v>
+        <v>0.02522968154873258</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.03258733819540732</v>
+        <v>0.03206136476803524</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4179</v>
+        <v>3906</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4759</v>
+        <v>4068</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3529</v>
+        <v>3692</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9066</v>
+        <v>8948</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4988</v>
+        <v>4877</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3246</v>
+        <v>3630</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>9690</v>
+        <v>9386</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>15794</v>
+        <v>15947</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7502</v>
+        <v>7165</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>8204</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17368</v>
+        <v>17297</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16698</v>
+        <v>16948</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7635</v>
+        <v>8453</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>22591</v>
+        <v>19241</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14527</v>
+        <v>14158</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>24260</v>
+        <v>24862</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>17159</v>
+        <v>17577</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20252</v>
+        <v>20137</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>26512</v>
+        <v>25847</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>33768</v>
+        <v>33872</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>21470</v>
+        <v>21641</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>31487</v>
+        <v>32575</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2989</v>
+        <v>2787</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11687</v>
+        <v>11766</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11798</v>
+        <v>11026</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9415</v>
+        <v>10001</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17197</v>
+        <v>17260</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7851</v>
+        <v>8250</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6514</v>
+        <v>6778</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>15436</v>
+        <v>15070</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>33199</v>
+        <v>33983</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>22250</v>
+        <v>23042</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>10559</v>
+        <v>11356</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13796</v>
+        <v>13048</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>30323</v>
+        <v>31441</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>29109</v>
+        <v>27892</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18398</v>
+        <v>17299</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>27083</v>
+        <v>26047</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39688</v>
+        <v>40779</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23000</v>
+        <v>23115</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21666</v>
+        <v>22127</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>34753</v>
+        <v>33140</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>61783</v>
+        <v>62114</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>45564</v>
+        <v>45041</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>31861</v>
+        <v>32262</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1822</v>
+        <v>1911</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8957</v>
+        <v>9201</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8301</v>
+        <v>8444</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7465</v>
+        <v>6492</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7838</v>
+        <v>7901</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11565</v>
+        <v>10717</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7741</v>
+        <v>7713</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11969</v>
+        <v>11796</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12005</v>
+        <v>11942</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>24274</v>
+        <v>23410</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>19856</v>
+        <v>20351</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>21944</v>
+        <v>22237</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10960</v>
+        <v>10917</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25323</v>
+        <v>25190</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>25375</v>
+        <v>24653</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22850</v>
+        <v>22406</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>24137</v>
+        <v>24537</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>28743</v>
+        <v>29470</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23090</v>
+        <v>22809</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25176</v>
+        <v>25861</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>29775</v>
+        <v>30728</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>47875</v>
+        <v>47946</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>41739</v>
+        <v>42975</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>42874</v>
+        <v>42897</v>
       </c>
     </row>
     <row r="16">
@@ -2554,37 +2554,37 @@
         <v>3783</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6044</v>
+        <v>6005</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6450</v>
+        <v>6523</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12310</v>
+        <v>12604</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3015</v>
+        <v>2908</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4446</v>
+        <v>4405</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2011</v>
+        <v>2030</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14969</v>
+        <v>15030</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8656</v>
+        <v>9006</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>13582</v>
+        <v>13831</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>10329</v>
+        <v>10727</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>30677</v>
+        <v>31833</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16743</v>
+        <v>16482</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21450</v>
+        <v>22265</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21843</v>
+        <v>21209</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>32391</v>
+        <v>32077</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>13780</v>
+        <v>14442</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>17525</v>
+        <v>17433</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>11637</v>
+        <v>11691</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>29375</v>
+        <v>29519</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>24779</v>
+        <v>24610</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>34622</v>
+        <v>32714</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>28272</v>
+        <v>27515</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>55714</v>
+        <v>56703</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7038</v>
+        <v>6703</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6605</v>
+        <v>6802</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4410</v>
+        <v>4459</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9307</v>
+        <v>8799</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4337</v>
+        <v>4393</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4105</v>
+        <v>4085</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9868</v>
+        <v>10055</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>19313</v>
+        <v>18822</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>14146</v>
+        <v>13981</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>12982</v>
+        <v>13171</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>18506</v>
+        <v>18142</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>32326</v>
+        <v>31510</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20899</v>
+        <v>21400</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>24086</v>
+        <v>22665</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>18500</v>
+        <v>17428</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>23859</v>
+        <v>22410</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>16765</v>
+        <v>17133</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>16815</v>
+        <v>15722</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>27745</v>
+        <v>27589</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>34603</v>
+        <v>35447</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>33123</v>
+        <v>32711</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>34342</v>
+        <v>33193</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>40342</v>
+        <v>40941</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>52534</v>
+        <v>52702</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4451</v>
+        <v>4605</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8877</v>
+        <v>9569</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4170</v>
+        <v>4213</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5945</v>
+        <v>6173</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5306</v>
+        <v>5412</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>4765</v>
+        <v>4661</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>3867</v>
+        <v>3233</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>10500</v>
+        <v>10020</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>11892</v>
+        <v>11336</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>17083</v>
+        <v>17021</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>9883</v>
+        <v>10759</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>18714</v>
+        <v>18729</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>15970</v>
+        <v>15374</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>29768</v>
+        <v>30096</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>16202</v>
+        <v>16608</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>16707</v>
+        <v>17532</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>18063</v>
+        <v>17811</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>17454</v>
+        <v>17387</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>17459</v>
+        <v>17593</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>22377</v>
+        <v>21478</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>28378</v>
+        <v>27855</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>42243</v>
+        <v>41893</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>28687</v>
+        <v>29388</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>34453</v>
+        <v>34970</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3535</v>
+        <v>3813</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4296</v>
+        <v>4655</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>5011</v>
+        <v>4739</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5730</v>
+        <v>4962</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>6602</v>
+        <v>6658</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5035</v>
+        <v>4947</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>14699</v>
+        <v>15317</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>11417</v>
+        <v>11421</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>14546</v>
+        <v>14266</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>6191</v>
+        <v>5823</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>22861</v>
+        <v>22811</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>16455</v>
+        <v>15641</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>19093</v>
+        <v>19401</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5177</v>
+        <v>5008</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>15082</v>
+        <v>15366</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>19777</v>
+        <v>19223</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>22116</v>
+        <v>21090</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>19325</v>
+        <v>19252</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>30204</v>
+        <v>31175</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>30101</v>
+        <v>30693</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>36901</v>
+        <v>36604</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>21621</v>
+        <v>20709</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>40312</v>
+        <v>41576</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>45169</v>
+        <v>45163</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>76042</v>
+        <v>75525</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>54550</v>
+        <v>51940</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>64843</v>
+        <v>63411</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>59623</v>
+        <v>60325</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>82708</v>
+        <v>82317</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>62727</v>
+        <v>61573</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>103330</v>
+        <v>106334</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>111389</v>
+        <v>111051</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>169478</v>
+        <v>170430</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>127489</v>
+        <v>126685</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>179194</v>
+        <v>178349</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>75431</v>
+        <v>75639</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>117649</v>
+        <v>118212</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>86130</v>
+        <v>88020</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>104037</v>
+        <v>104393</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>95690</v>
+        <v>94621</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>123063</v>
+        <v>125755</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>101925</v>
+        <v>97839</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>142213</v>
+        <v>144233</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>158502</v>
+        <v>157842</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>229008</v>
+        <v>229839</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>178054</v>
+        <v>175066</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>236701</v>
+        <v>232881</v>
       </c>
     </row>
     <row r="36">
